--- a/evaluation/OLS_Regression_Feature_Analysis.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,287 +453,287 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.193752881493996</v>
+        <v>0.2918688524590163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7105488524144286</v>
+        <v>2.743548522160152e-218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.001243322550434</v>
+        <v>0.1539040666550746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6991230389563697</v>
+        <v>1.668696342890521e-90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Underestimation Unfairness of sensitive attribute</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5640034147478935</v>
+        <v>0.03314003032417872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1012247309245148</v>
+        <v>0.4839982361238356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Absolute Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5529310468487401</v>
+        <v>0.02814926757631582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09567530778497682</v>
+        <v>0.2703323158519191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4521969762697376</v>
+        <v>0.02572499905784917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.106534160289792</v>
+        <v>0.00149546835494128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Underestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3295333333333315</v>
+        <v>0.02105074475510475</v>
       </c>
       <c r="C7" t="n">
-        <v>2.126541794811487e-49</v>
+        <v>0.06549403269614752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Skewness of Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2220262564273353</v>
+        <v>0.01912845362787197</v>
       </c>
       <c r="C8" t="n">
-        <v>2.643859686019648e-13</v>
+        <v>0.2663094605408997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_PMF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1128730724178589</v>
+        <v>0.01351245787191132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06029637552649876</v>
+        <v>0.8920674369679353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_BiasedMF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1086333373002205</v>
+        <v>0.01339384590959846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06657431205805645</v>
+        <v>0.2053819984941926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08720563598554758</v>
+        <v>0.01317408544321377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04442546462250457</v>
+        <v>0.894159468408225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08706178901231321</v>
+        <v>0.01315293296904222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6000190563138617</v>
+        <v>0.3829606409984254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04341178377524149</v>
+        <v>0.01221134286179706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2758625775577468</v>
+        <v>0.2852408648447033</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Kurtosis of Rating</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01083150558933397</v>
+        <v>0.009938608082203638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3054474394003537</v>
+        <v>0.5314931617057299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009018832063188622</v>
+        <v>0.009575708591951743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8344690539343165</v>
+        <v>0.5025350050450982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Standart Deviation of Long Tail Items</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006160646982416188</v>
+        <v>0.005320191045252302</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6300058501791768</v>
+        <v>0.715380484879595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Difference between Gender's Percentage</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002714332400393239</v>
+        <v>0.004238002299273656</v>
       </c>
       <c r="C17" t="n">
-        <v>0.590215988601104</v>
+        <v>0.760653007957276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gender == 0 Percentage</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002714332400347665</v>
+        <v>0.001575194833549756</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5902159886001286</v>
+        <v>0.8950530571691561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002411127342777364</v>
+        <v>0.0008650369180708507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.816599409423743</v>
+        <v>0.8998893607357195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_DMF</t>
+          <t>Gender == 1 Percentage</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001480848962201353</v>
+        <v>0.0008261795950424225</v>
       </c>
       <c r="C20" t="n">
-        <v>0.86121459728088</v>
+        <v>0.4502164660350261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NonParity Unfairness of sensitive attribute</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002525595195373058</v>
+        <v>0.0007319336348524828</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6715573713805448</v>
+        <v>0.9100705980256836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gender == 1 Percentage</t>
+          <t>Absolute Difference</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.002714332399885645</v>
+        <v>0.000344536464448016</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5902159885791927</v>
+        <v>0.8154841980942894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Subset ID</t>
+          <t>NonParity Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004811375864819018</v>
+        <v>0.0003445364644479379</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8590499159972625</v>
+        <v>0.8154841980943299</v>
       </c>
     </row>
     <row r="24">
@@ -743,75 +743,244 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.05467490470170388</v>
+        <v>-3.481008268201285e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03966392245842577</v>
+        <v>0.9952024744420983</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Kurtosis of Popularity Bias</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.07393588787762687</v>
+        <v>-0.0005033895348241571</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3936760271724117</v>
+        <v>0.9329674873440679</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Absolute Unfairness of sensitive attribute</t>
+          <t>Subset ID</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.08345685452464263</v>
+        <v>-0.0006526810728670718</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03101642132335925</v>
+        <v>0.7780530631525391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Difference between Gender's Percentage</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2368842593626168</v>
+        <v>-0.0008261795950425851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7162558354528392</v>
+        <v>0.4502164660349415</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Gender == 0 Percentage</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.5497920200324258</v>
+        <v>-0.0008261795950459156</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1267158875078926</v>
+        <v>0.4502164660331414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.00381335384336708</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3865775381943566</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gini User</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.006338512499191988</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04199357287600991</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rating per Item</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.006749937381981465</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9227176230577632</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.007565654092645426</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0592581597998133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kurtosis of Long Tail Items</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.008628346758958509</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5786212062189783</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Number of Users</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-1.751008303323474</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7708702119947539</v>
+      <c r="B34" t="n">
+        <v>-0.01150857607267441</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8740700109711134</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Average Long Tail Items</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.01578037462535176</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3279627500589789</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>giniindex@5</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.01959514065173965</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.005553474345298588</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.02036353551955277</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1540876327677886</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Value Unfairness of sensitive attribute</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.02951796704572924</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.211015135420246</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Model Name_PFCN_MLP</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.03499238889668155</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.448863260943041e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Model Name_NFCF</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.03928500417449069</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.005971059689849482</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Number of Items</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.05697606994028049</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2208047545094438</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Model Name_FairGo_PMF</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.07407964828879424</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.56909959262917e-11</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/OLS_Regression_Feature_Analysis.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2918688524590163</v>
+        <v>0.2966762295081972</v>
       </c>
       <c r="C2" t="n">
-        <v>2.743548522160152e-218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -470,75 +470,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1539040666550746</v>
+        <v>0.1529398850878018</v>
       </c>
       <c r="C3" t="n">
-        <v>1.668696342890521e-90</v>
+        <v>5.514921980371413e-187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Skewness of Rating</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03314003032417872</v>
+        <v>0.03179031820119543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4839982361238356</v>
+        <v>0.007591726835159246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absolute Unfairness of sensitive attribute</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02814926757631582</v>
+        <v>0.02744796047440716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2703323158519191</v>
+        <v>0.4027537039832908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02572499905784917</v>
+        <v>0.02375597164570989</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00149546835494128</v>
+        <v>0.02219582621635219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Underestimation Unfairness of sensitive attribute</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02105074475510475</v>
+        <v>0.0219012044128976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06549403269614752</v>
+        <v>3.084826224369114e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Kurtosis of Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01912845362787197</v>
+        <v>0.02063869901449756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2663094605408997</v>
+        <v>0.06000827139980703</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01351245787191132</v>
+        <v>0.01985423095863282</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8920674369679353</v>
+        <v>0.7761664830092057</v>
       </c>
     </row>
     <row r="10">
@@ -561,205 +561,205 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01339384590959846</v>
+        <v>0.01981986465572054</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2053819984941926</v>
+        <v>0.00629399449839604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Underestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01317408544321377</v>
+        <v>0.0149292520512477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.894159468408225</v>
+        <v>0.06652930712221072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01315293296904222</v>
+        <v>0.009132163528458246</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3829606409984254</v>
+        <v>0.2435144098788745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01221134286179706</v>
+        <v>0.005064055889203414</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2852408648447033</v>
+        <v>0.544321485241378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.009938608082203638</v>
+        <v>0.004876854113516305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5314931617057299</v>
+        <v>0.608035532958157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Absolute Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009575708591951743</v>
+        <v>0.004737745887732382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5025350050450982</v>
+        <v>0.7906714168830027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005320191045252302</v>
+        <v>0.004537950451918016</v>
       </c>
       <c r="C16" t="n">
-        <v>0.715380484879595</v>
+        <v>0.6353627321514044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004238002299273656</v>
+        <v>0.002420179366782342</v>
       </c>
       <c r="C17" t="n">
-        <v>0.760653007957276</v>
+        <v>0.9721698340323878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001575194833549756</v>
+        <v>0.002169277792482342</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8950530571691561</v>
+        <v>0.2114362055067688</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0008650369180708507</v>
+        <v>0.001673977282062261</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8998893607357195</v>
+        <v>0.7071489594699986</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gender == 1 Percentage</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0008261795950424225</v>
+        <v>0.001098680756812204</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4502164660350261</v>
+        <v>0.8171460340460328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Sensitive Attribute == 0 Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0007319336348524828</v>
+        <v>0.0004869569196039615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9100705980256836</v>
+        <v>0.4045323079069502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Absolute Difference</t>
+          <t>NonParity Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.000344536464448016</v>
+        <v>-0.0002205917386939749</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8154841980942894</v>
+        <v>0.836453131054246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NonParity Unfairness of sensitive attribute</t>
+          <t>Absolute Difference</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003445364644479379</v>
+        <v>-0.0002205917386940781</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8154841980943299</v>
+        <v>0.8364531310541879</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3.481008268201285e-05</v>
+        <v>-0.0004869569196030053</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9952024744420983</v>
+        <v>0.4045323079079074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Sensitive Attribute == 1 Percentage</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0005033895348241571</v>
+        <v>-0.0004869569196040148</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9329674873440679</v>
+        <v>0.404532307906974</v>
       </c>
     </row>
     <row r="26">
@@ -769,218 +769,231 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.0006526810728670718</v>
+        <v>-0.0007932786831536887</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7780530631525391</v>
+        <v>0.6213725071917204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Difference between Gender's Percentage</t>
+          <t>Kurtosis of Popularity Bias</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0008261795950425851</v>
+        <v>-0.00123327649434126</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4502164660349415</v>
+        <v>0.7570188169140873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gender == 0 Percentage</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0008261795950459156</v>
+        <v>-0.001405549561911057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4502164660331414</v>
+        <v>0.7016908581653682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Kurtosis of Long Tail Items</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.00381335384336708</v>
+        <v>-0.002457377774077805</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3865775381943566</v>
+        <v>0.8145574502286423</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.006338512499191988</v>
+        <v>-0.002760938213135999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04199357287600991</v>
+        <v>0.3372815556328126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Standart Deviation of Long Tail Items</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.006749937381981465</v>
+        <v>-0.004448979715808326</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9227176230577632</v>
+        <v>0.6380208429368779</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.007565654092645426</v>
+        <v>-0.004822157341618977</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0592581597998133</v>
+        <v>0.01884225943916222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.008628346758958509</v>
+        <v>-0.005085946018817553</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5786212062189783</v>
+        <v>0.01810309240973965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.01150857607267441</v>
+        <v>-0.00632009461876502</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8740700109711134</v>
+        <v>0.8962871294781467</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01578037462535176</v>
+        <v>-0.008331940197846503</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3279627500589789</v>
+        <v>0.6151967682720191</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01959514065173965</v>
+        <v>-0.008894963921691109</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005553474345298588</v>
+        <v>0.4065334085169515</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02036353551955277</v>
+        <v>-0.01107673564017764</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1540876327677886</v>
+        <v>0.8267347580024169</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02951796704572924</v>
+        <v>-0.02019114017053294</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211015135420246</v>
+        <v>4.13231622588286e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.03499238889668155</v>
+        <v>-0.02036117377603472</v>
       </c>
       <c r="C39" t="n">
-        <v>5.448863260943041e-05</v>
+        <v>0.03300233043745834</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.03928500417449069</v>
+        <v>-0.03266383644870266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.005971059689849482</v>
+        <v>2.096697059492559e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.05697606994028049</v>
+        <v>-0.03616398881188313</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2208047545094438</v>
+        <v>0.0005988637549597123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Number of Items</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.0467557196185817</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1335027769688498</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>-0.07407964828879424</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8.56909959262917e-11</v>
+      <c r="B43" t="n">
+        <v>-0.06908789474201993</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.571442036967819e-18</v>
       </c>
     </row>
   </sheetData>
